--- a/input_files/static/SP Global weighted mean mine parameters update.xlsx
+++ b/input_files/static/SP Global weighted mean mine parameters update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/input_files/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C86000-147B-DC46-9F52-EDA6A7752FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEE011-4E9D-A345-B460-20924C9C574F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,36 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
-  <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Molybdenum</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
   <si>
     <t>Grade (%)</t>
   </si>
@@ -71,6 +41,36 @@
   </si>
   <si>
     <t>Total cash margin (USD/t)</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Zn</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BT1" sqref="BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
     <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -495,7 +495,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -504,7 +504,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -513,7 +513,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -522,7 +522,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -531,7 +531,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -540,7 +540,7 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
@@ -549,7 +549,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
@@ -558,7 +558,7 @@
       <c r="BD1" s="2"/>
       <c r="BE1" s="2"/>
       <c r="BF1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
@@ -567,7 +567,7 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
       <c r="BM1" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
@@ -579,214 +579,214 @@
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
@@ -8754,16 +8754,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AX1"/>
     <mergeCell ref="AY1:BE1"/>
     <mergeCell ref="BF1:BL1"/>
     <mergeCell ref="BM1:BS1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AD1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
